--- a/test-analysis/hackathon-netcompany-auth-test-analysis-template_2023_12_20.xlsx
+++ b/test-analysis/hackathon-netcompany-auth-test-analysis-template_2023_12_20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SISI\ΑΠΘ\9ο εξάμηνο\Μηχανική Λογισμικού ΙΙ\χακαθον\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sisis\Desktop\test-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EC02B3-7F96-45AF-B8DC-F298EFF0B846}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AA1C77-16E7-489D-ADE9-3A39BA85DA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{48624885-0AAB-4687-AE04-C5692DDE392F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{48624885-0AAB-4687-AE04-C5692DDE392F}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Report" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="86">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -90,9 +90,6 @@
     <t>1.1</t>
   </si>
   <si>
-    <t>1.2</t>
-  </si>
-  <si>
     <t>Adding a product in the Cart without any problems</t>
   </si>
   <si>
@@ -111,24 +108,9 @@
     <t>products are included in the cart and the amount of money are calculated automatically and corrected</t>
   </si>
   <si>
-    <t>Adding products in the Cart Successfully</t>
-  </si>
-  <si>
     <t xml:space="preserve">Add Products in the Cart </t>
   </si>
   <si>
-    <t>Adding a product in the Cart that is not available</t>
-  </si>
-  <si>
-    <t>Adding a product in the Cart that is no longer available, no more left of it.</t>
-  </si>
-  <si>
-    <t>user selects product</t>
-  </si>
-  <si>
-    <t>product can not be selected(cannot be therefore added in the Cart)</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -138,9 +120,6 @@
     <t>Complete Order Successfully</t>
   </si>
   <si>
-    <t>Completing an order without any problem</t>
-  </si>
-  <si>
     <t>System must be connected to the network and the user must have atleast one item in the Cart</t>
   </si>
   <si>
@@ -150,18 +129,6 @@
     <t>2.2</t>
   </si>
   <si>
-    <t>Attempting to Complete Order Without Enough Money</t>
-  </si>
-  <si>
-    <t>The user doesn’t have enough money to complete the order so it gets rejected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A confirmation message is displayed and the order is correctly recorded </t>
-  </si>
-  <si>
-    <t>An error message appears that informs the user of the issue</t>
-  </si>
-  <si>
     <t>3.1</t>
   </si>
   <si>
@@ -180,21 +147,6 @@
     <t>the products searched for are the ones displayed in the search results' screen</t>
   </si>
   <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>user types the keywords for the product</t>
-  </si>
-  <si>
-    <t>Searching for a Product that doesn't exist</t>
-  </si>
-  <si>
-    <t>The user uses wrong keyword that isnt assigned to any product</t>
-  </si>
-  <si>
-    <t>no product is displayed on the screen and an error message appears that informs the user of the issue</t>
-  </si>
-  <si>
     <t>4.1</t>
   </si>
   <si>
@@ -213,15 +165,6 @@
     <t>the list of the top deals is correctly displayed on the screen</t>
   </si>
   <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>The user cannot see any top deals</t>
-  </si>
-  <si>
-    <t>There arent any top deals at the moment</t>
-  </si>
-  <si>
     <t>5.1</t>
   </si>
   <si>
@@ -240,13 +183,112 @@
     <t>the respective discount is automatically calculated</t>
   </si>
   <si>
-    <t>The user uses a Promo Code that has expired for the order in the Cart</t>
-  </si>
-  <si>
-    <t>The user cannot receive the benefits of the Promo Code they used anymore</t>
-  </si>
-  <si>
-    <t>no top deals and a message that informs the user of the issue appear on screen</t>
+    <t>url grammar mistake</t>
+  </si>
+  <si>
+    <t>trivial</t>
+  </si>
+  <si>
+    <t>there is a grammar mistake in the url : https://rahulshettyacademy.com/seleniumPractise/#/</t>
+  </si>
+  <si>
+    <t>It should be practice with c not s</t>
+  </si>
+  <si>
+    <t>Adding one product in the Cart Successfully</t>
+  </si>
+  <si>
+    <t>Completing an order after selecting complete order</t>
+  </si>
+  <si>
+    <t>redirect to choose country and to agree to terms and conditions</t>
+  </si>
+  <si>
+    <t>not selecting country issue</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>After selecting complete order, the user can still proceed without selecting a country</t>
+  </si>
+  <si>
+    <t>He still needs to select to agree to terms and conditions</t>
+  </si>
+  <si>
+    <t>user selects doesn't select country and agrees to terms and conditions and proceeds</t>
+  </si>
+  <si>
+    <t>An error message appears</t>
+  </si>
+  <si>
+    <t>user selects terms and conditions</t>
+  </si>
+  <si>
+    <t>User can read the terms and conditions</t>
+  </si>
+  <si>
+    <t>not viewing terms and conditions</t>
+  </si>
+  <si>
+    <t>minor</t>
+  </si>
+  <si>
+    <t>Probably missing text</t>
+  </si>
+  <si>
+    <t>When the user selects terms and conditions, they are not written in the page</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Adding a product in the Cart with quantity number equals to 0</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Adds a product with quantity zero in the cart</t>
+  </si>
+  <si>
+    <t>Adding a product in the Cart but typing quantity number 0</t>
+  </si>
+  <si>
+    <t>user selects quantity number 0 of an item</t>
+  </si>
+  <si>
+    <t>The product has been selected</t>
+  </si>
+  <si>
+    <t>add to cart</t>
+  </si>
+  <si>
+    <t>The product selected is included in the cart</t>
+  </si>
+  <si>
+    <t>1.4.</t>
+  </si>
+  <si>
+    <t>Refresh Page or Open page in a New Tab</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>I add products in my cart, and then either refresh the page or open it in a new tab and I can no longer view the products I added.</t>
+  </si>
+  <si>
+    <t>The user refreshes the page or opens it in a new tab</t>
+  </si>
+  <si>
+    <t>The user can no longer view the products added in the cart</t>
+  </si>
+  <si>
+    <t>user clicks on refresh, or opens the page's link in a new tab</t>
+  </si>
+  <si>
+    <t>The page with the products added in the cart before the action should be shown</t>
   </si>
 </sst>
 </file>
@@ -509,6 +551,28 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -525,28 +589,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -869,85 +911,85 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="10" customWidth="1"/>
     <col min="5" max="5" width="26" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="10"/>
+    <col min="6" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+    <row r="2" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickBot="1">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.2" thickBot="1">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1">
+    <row r="4" spans="1:5" ht="16.2" thickBot="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" thickBot="1">
+    <row r="5" spans="1:5" ht="16.2" thickBot="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" thickBot="1">
+    <row r="6" spans="1:5" ht="16.2" thickBot="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" thickBot="1">
+    <row r="7" spans="1:5" ht="16.2" thickBot="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" thickBot="1">
+    <row r="8" spans="1:5" ht="16.2" thickBot="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1">
+    <row r="9" spans="1:5" ht="16.2" thickBot="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -967,86 +1009,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC192840-8274-4346-A7E9-BBD1EE7DFCBA}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
-    <col min="2" max="2" width="65.28515625" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="27"/>
       <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="25"/>
       <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="12" customHeight="1" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="17"/>
+      <c r="B3" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="25"/>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="12" customHeight="1" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="17"/>
+      <c r="B4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="25"/>
       <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="12" customHeight="1" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="17"/>
+      <c r="B5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="25"/>
       <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="12" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="s">
@@ -1061,104 +1113,116 @@
       <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="12" customHeight="1" thickBot="1">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12" customHeight="1" thickBot="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="9" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="12" customHeight="1" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>19</v>
+      <c r="B12" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="C12" s="21"/>
       <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="12" customHeight="1" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="17"/>
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8"/>
       <c r="E13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="12" customHeight="1" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="17"/>
+      <c r="B14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="8"/>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="12" customHeight="1" thickBot="1">
       <c r="A15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="17"/>
+      <c r="B15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="8"/>
       <c r="E15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="12" customHeight="1" thickBot="1">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="17"/>
+      <c r="B16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="8"/>
       <c r="E16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="12" customHeight="1" thickBot="1">
       <c r="A17" s="6" t="s">
@@ -1173,89 +1237,109 @@
       <c r="E17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A18" s="9"/>
+      <c r="A18" s="9">
+        <v>1</v>
+      </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="9">
+        <v>2</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="12" customHeight="1" thickBot="1"/>
     <row r="21" spans="1:6" ht="12" customHeight="1" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="19"/>
+      <c r="B21" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="27"/>
       <c r="E21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F21" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1">
       <c r="A22" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="17"/>
+      <c r="B22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="25"/>
       <c r="E22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F22" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="17"/>
+      <c r="B23" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="25"/>
       <c r="E23" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F23" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1">
       <c r="A24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="17"/>
+      <c r="B24" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="25"/>
       <c r="E24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F24" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.2" thickBot="1">
       <c r="A25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="17"/>
+      <c r="B25" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="25"/>
       <c r="E25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F25" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1">
       <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
@@ -1268,89 +1352,105 @@
       <c r="E26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" ht="29.25" thickBot="1">
+      <c r="F26" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.2" thickBot="1">
       <c r="A27" s="9"/>
       <c r="B27" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+        <v>30</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="28.2" thickBot="1">
       <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="22"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1"/>
+    <row r="30" spans="1:6" ht="15" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="3"/>
+      <c r="B30" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="27"/>
       <c r="E30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F30" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" thickBot="1">
       <c r="A31" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="8"/>
+      <c r="B31" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="25"/>
       <c r="E31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F31" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1">
       <c r="A32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="17"/>
+      <c r="B32" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="25"/>
       <c r="E32" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F32" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" thickBot="1">
       <c r="A33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="17"/>
+      <c r="B33" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="25"/>
       <c r="E33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F33" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" thickBot="1">
       <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="17"/>
+      <c r="B34" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="25"/>
       <c r="E34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F34" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1">
       <c r="A35" s="6" t="s">
         <v>5</v>
       </c>
@@ -1365,67 +1465,106 @@
       </c>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6" ht="29.25" thickBot="1">
+    <row r="36" spans="1:6" ht="28.2" thickBot="1">
       <c r="A36" s="9"/>
       <c r="B36" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1">
+        <v>30</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1">
       <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B37" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1">
+      <c r="E38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1">
+      <c r="E39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1">
       <c r="A40" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1">
+      <c r="E40" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1">
       <c r="A41" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="17"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B41" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="E41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="42" thickBot="1">
       <c r="A42" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="17"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B42" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="E42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1">
       <c r="A43" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="17"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B43" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="E43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickBot="1">
       <c r="A44" s="6" t="s">
         <v>5</v>
       </c>
@@ -1436,67 +1575,92 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="29.25" thickBot="1">
+    <row r="45" spans="1:6" ht="28.2" thickBot="1">
       <c r="A45" s="9"/>
       <c r="B45" s="9" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1">
+    <row r="47" spans="1:6" ht="15" thickBot="1">
+      <c r="E47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1">
+      <c r="E48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" thickBot="1">
       <c r="A49" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C49" s="8"/>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1">
+      <c r="E49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" thickBot="1">
       <c r="A50" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="17"/>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B50" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="25"/>
+      <c r="E50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" thickBot="1">
       <c r="A51" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="17"/>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B51" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="25"/>
+      <c r="E51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" thickBot="1">
       <c r="A52" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="17"/>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B52" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="25"/>
+      <c r="E52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="9"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" thickBot="1">
       <c r="A53" s="6" t="s">
         <v>5</v>
       </c>
@@ -1507,67 +1671,92 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="43.5" thickBot="1">
+    <row r="54" spans="1:6" ht="28.2" thickBot="1">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" thickBot="1">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1">
+      <c r="E55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" thickBot="1">
+      <c r="E56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" thickBot="1">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1">
+      <c r="E57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" thickBot="1">
       <c r="A58" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C58" s="8"/>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1">
+      <c r="E58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="1:6" ht="15" thickBot="1">
       <c r="A59" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" s="17"/>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B59" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="25"/>
+      <c r="E59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" thickBot="1">
       <c r="A60" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C60" s="17"/>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B60" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="25"/>
+      <c r="E60" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" thickBot="1">
       <c r="A61" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" s="17"/>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B61" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="25"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" thickBot="1">
       <c r="A62" s="6" t="s">
         <v>5</v>
       </c>
@@ -1578,137 +1767,156 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="29.25" thickBot="1">
+    <row r="63" spans="1:6" ht="28.2" thickBot="1">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1">
+        <v>43</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="1:6" ht="15" thickBot="1">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="66" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A66" s="1" t="s">
+      <c r="E64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="9"/>
+    </row>
+    <row r="65" spans="1:6" ht="15" thickBot="1">
+      <c r="E65" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" spans="1:6" ht="15" thickBot="1">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
       <c r="C66" s="3"/>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A67" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="E66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="1:6" ht="15" thickBot="1">
+      <c r="A67" s="6"/>
+      <c r="B67" s="7"/>
       <c r="C67" s="8"/>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A68" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" s="17"/>
-    </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A69" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C69" s="17"/>
-    </row>
-    <row r="70" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A70" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70" s="17"/>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A71" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="29.25" thickBot="1">
+      <c r="E67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="1:6" ht="15" thickBot="1">
+      <c r="A68" s="6"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="E68" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" spans="1:6" ht="15" thickBot="1">
+      <c r="A69" s="6"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="25"/>
+    </row>
+    <row r="70" spans="1:6" ht="15" thickBot="1">
+      <c r="A70" s="6"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
+    </row>
+    <row r="71" spans="1:6" ht="15" thickBot="1">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+    </row>
+    <row r="72" spans="1:6" ht="15" thickBot="1">
       <c r="A72" s="9"/>
-      <c r="B72" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="E72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73" spans="1:6" ht="15" thickBot="1">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
-    </row>
-    <row r="74" spans="1:3" ht="15.75" thickBot="1">
+      <c r="E73" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="1:6" ht="15" thickBot="1">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C74" s="3"/>
-    </row>
-    <row r="75" spans="1:3" ht="15.75" thickBot="1">
+      <c r="E74" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" s="9"/>
+    </row>
+    <row r="75" spans="1:6" ht="15" thickBot="1">
       <c r="A75" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C75" s="8"/>
-    </row>
-    <row r="76" spans="1:3" ht="15.75" thickBot="1">
+      <c r="E75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" spans="1:6" ht="15" thickBot="1">
       <c r="A76" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C76" s="17"/>
-    </row>
-    <row r="77" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B76" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="25"/>
+      <c r="E76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="1:6" ht="15" thickBot="1">
       <c r="A77" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C77" s="17"/>
-    </row>
-    <row r="78" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B77" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" s="25"/>
+      <c r="E77" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="9"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" thickBot="1">
       <c r="A78" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C78" s="17"/>
-    </row>
-    <row r="79" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B78" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="25"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" thickBot="1">
       <c r="A79" s="6" t="s">
         <v>5</v>
       </c>
@@ -1719,126 +1927,257 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="29.25" thickBot="1">
+    <row r="80" spans="1:6" ht="28.2" thickBot="1">
       <c r="A80" s="9"/>
       <c r="B80" s="9" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-    </row>
-    <row r="82" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A82" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" spans="1:6" ht="15" thickBot="1">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="3"/>
+      <c r="E81" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="9"/>
+    </row>
+    <row r="82" spans="1:6" ht="15" thickBot="1">
+      <c r="A82" s="6"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="8"/>
+      <c r="E82" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="3"/>
-    </row>
-    <row r="83" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A83" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="F82" s="9"/>
+    </row>
+    <row r="83" spans="1:6" ht="15" thickBot="1">
+      <c r="A83" s="6"/>
+      <c r="B83" s="7"/>
       <c r="C83" s="8"/>
-    </row>
-    <row r="84" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A84" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C84" s="17"/>
-    </row>
-    <row r="85" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A85" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C85" s="17"/>
-    </row>
-    <row r="86" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A86" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C86" s="17"/>
-    </row>
-    <row r="87" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A87" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="29.25" thickBot="1">
+      <c r="E83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="9"/>
+    </row>
+    <row r="84" spans="1:6" ht="15" thickBot="1">
+      <c r="A84" s="6"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="8"/>
+      <c r="E84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="9"/>
+    </row>
+    <row r="85" spans="1:6" ht="15" thickBot="1">
+      <c r="A85" s="6"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="8"/>
+      <c r="E85" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="9"/>
+    </row>
+    <row r="86" spans="1:6" ht="15" thickBot="1">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+    </row>
+    <row r="87" spans="1:6" ht="15" thickBot="1">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" thickBot="1">
       <c r="A88" s="9"/>
-      <c r="B88" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="E88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="5"/>
+    </row>
+    <row r="89" spans="1:6" ht="15" thickBot="1">
+      <c r="E89" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="9"/>
+    </row>
+    <row r="90" spans="1:6" ht="15" thickBot="1">
+      <c r="E90" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F90" s="9"/>
+    </row>
+    <row r="91" spans="1:6" ht="15" thickBot="1">
+      <c r="E91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="9"/>
+    </row>
+    <row r="92" spans="1:6" ht="15" thickBot="1">
+      <c r="A92" s="1"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="27"/>
+      <c r="E92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="9"/>
+    </row>
+    <row r="93" spans="1:6" ht="15" thickBot="1">
+      <c r="A93" s="6"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="25"/>
+      <c r="E93" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="9"/>
+    </row>
+    <row r="94" spans="1:6" ht="15" thickBot="1">
+      <c r="A94" s="6"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="25"/>
+    </row>
+    <row r="95" spans="1:6" ht="15" thickBot="1">
+      <c r="A95" s="6"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="25"/>
+    </row>
+    <row r="96" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A96" s="6"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="25"/>
+      <c r="E96" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97" spans="1:6" ht="15" thickBot="1">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="E97" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="9"/>
+    </row>
+    <row r="98" spans="1:6" ht="15" thickBot="1">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="14"/>
+      <c r="E98" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F98" s="9"/>
+    </row>
+    <row r="99" spans="1:6" ht="15" thickBot="1">
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="15"/>
+      <c r="E99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="9"/>
+    </row>
+    <row r="100" spans="1:6" ht="15" thickBot="1">
+      <c r="E100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="9"/>
+    </row>
+    <row r="101" spans="1:6" ht="15" thickBot="1">
+      <c r="A101" s="1"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="27"/>
+      <c r="E101" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="9"/>
+    </row>
+    <row r="102" spans="1:6" ht="15" thickBot="1">
+      <c r="A102" s="6"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="25"/>
+    </row>
+    <row r="103" spans="1:6" ht="15" thickBot="1">
+      <c r="A103" s="6"/>
+      <c r="B103" s="24"/>
+      <c r="C103" s="25"/>
+    </row>
+    <row r="104" spans="1:6" ht="15" thickBot="1">
+      <c r="A104" s="6"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="25"/>
+    </row>
+    <row r="105" spans="1:6" ht="15" thickBot="1">
+      <c r="A105" s="6"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="25"/>
+    </row>
+    <row r="106" spans="1:6" ht="15" thickBot="1">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+    </row>
+    <row r="107" spans="1:6" ht="15" thickBot="1">
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="14"/>
+    </row>
+    <row r="108" spans="1:6" ht="15" thickBot="1">
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
+  <mergeCells count="40">
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1853,7 +2192,7 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1865,7 +2204,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1877,7 +2216,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1889,7 +2228,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1903,7 +2242,7 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test-analysis/hackathon-netcompany-auth-test-analysis-template_2023_12_20.xlsx
+++ b/test-analysis/hackathon-netcompany-auth-test-analysis-template_2023_12_20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sisis\Desktop\test-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AA1C77-16E7-489D-ADE9-3A39BA85DA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C275E60-FD02-43F4-B3A0-98C8430E70C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{48624885-0AAB-4687-AE04-C5692DDE392F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -267,9 +267,6 @@
     <t>The product selected is included in the cart</t>
   </si>
   <si>
-    <t>1.4.</t>
-  </si>
-  <si>
     <t>Refresh Page or Open page in a New Tab</t>
   </si>
   <si>
@@ -289,13 +286,34 @@
   </si>
   <si>
     <t>The page with the products added in the cart before the action should be shown</t>
+  </si>
+  <si>
+    <t>Searching for a Product that has a top deal</t>
+  </si>
+  <si>
+    <t>Searching for "Wheat"</t>
+  </si>
+  <si>
+    <t>The user can not view the produst "Wheat"</t>
+  </si>
+  <si>
+    <t>user types "Wheat" on the search box of Home Page</t>
+  </si>
+  <si>
+    <t>I view the product 'Wheat'</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>I cklick on top deals to view them, then go back to Home Page and search for 'Wheat' and I can not view the that product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +361,24 @@
       <color rgb="FF5E5E5E"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF353535"/>
+      <name val="Helvetica Neue"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5E5E5E"/>
+      <name val="Helvetica Neue"/>
+      <charset val="161"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -512,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -579,16 +615,28 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1011,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC192840-8274-4346-A7E9-BBD1EE7DFCBA}">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:C54"/>
+    <sheetView tabSelected="1" topLeftCell="C49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1029,10 +1077,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="27"/>
+      <c r="C1" s="25"/>
       <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1044,10 +1092,10 @@
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="27"/>
       <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1059,10 +1107,10 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="27"/>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1074,10 +1122,10 @@
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="27"/>
       <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
@@ -1089,10 +1137,10 @@
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="27"/>
       <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1268,10 +1316,10 @@
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="25"/>
       <c r="E21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1283,10 +1331,10 @@
       <c r="A22" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="27"/>
       <c r="E22" s="6" t="s">
         <v>9</v>
       </c>
@@ -1298,10 +1346,10 @@
       <c r="A23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="27"/>
       <c r="E23" s="6" t="s">
         <v>0</v>
       </c>
@@ -1313,10 +1361,10 @@
       <c r="A24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="27"/>
       <c r="E24" s="6" t="s">
         <v>10</v>
       </c>
@@ -1328,10 +1376,10 @@
       <c r="A25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="27"/>
       <c r="E25" s="6" t="s">
         <v>11</v>
       </c>
@@ -1379,25 +1427,25 @@
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="27"/>
+      <c r="C30" s="25"/>
       <c r="E30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>69</v>
+      <c r="F30" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" thickBot="1">
       <c r="A31" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="27"/>
       <c r="E31" s="6" t="s">
         <v>9</v>
       </c>
@@ -1409,10 +1457,10 @@
       <c r="A32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="25"/>
+      <c r="C32" s="27"/>
       <c r="E32" s="6" t="s">
         <v>0</v>
       </c>
@@ -1424,10 +1472,10 @@
       <c r="A33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="25"/>
+      <c r="C33" s="27"/>
       <c r="E33" s="6" t="s">
         <v>10</v>
       </c>
@@ -1439,10 +1487,10 @@
       <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="25"/>
+      <c r="C34" s="27"/>
       <c r="E34" s="6" t="s">
         <v>11</v>
       </c>
@@ -1487,8 +1535,8 @@
       <c r="E38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>78</v>
+      <c r="F38" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1">
@@ -1503,7 +1551,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1">
@@ -1518,17 +1566,17 @@
         <v>0</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1">
       <c r="A41" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="25"/>
+      <c r="C41" s="27"/>
       <c r="E41" s="6" t="s">
         <v>10</v>
       </c>
@@ -1540,25 +1588,25 @@
       <c r="A42" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="25"/>
+      <c r="C42" s="27"/>
       <c r="E42" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1">
       <c r="A43" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="25"/>
+      <c r="C43" s="27"/>
       <c r="E43" s="6" t="s">
         <v>12</v>
       </c>
@@ -1590,75 +1638,85 @@
       <c r="C46" s="9"/>
     </row>
     <row r="47" spans="1:6" ht="15" thickBot="1">
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="5"/>
+      <c r="F47" s="29">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="15" thickBot="1">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="31" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1">
       <c r="A49" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" s="8"/>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F49" s="9"/>
+      <c r="F49" s="31" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="50" spans="1:6" ht="15" thickBot="1">
       <c r="A50" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="25"/>
-      <c r="E50" s="6" t="s">
+      <c r="B50" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="E50" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="9"/>
-    </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1">
+      <c r="F50" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="42" thickBot="1">
       <c r="A51" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="25"/>
-      <c r="E51" s="6" t="s">
+      <c r="B51" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="E51" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="9"/>
+      <c r="F51" s="31" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1">
       <c r="A52" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="25"/>
-      <c r="E52" s="6" t="s">
+      <c r="C52" s="27"/>
+      <c r="E52" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="9"/>
+      <c r="F52" s="31"/>
     </row>
     <row r="53" spans="1:6" ht="15" thickBot="1">
       <c r="A53" s="6" t="s">
@@ -1674,10 +1732,10 @@
     <row r="54" spans="1:6" ht="28.2" thickBot="1">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1">
@@ -1725,10 +1783,10 @@
       <c r="A59" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="25"/>
+      <c r="C59" s="27"/>
       <c r="E59" s="6" t="s">
         <v>11</v>
       </c>
@@ -1738,10 +1796,10 @@
       <c r="A60" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="25"/>
+      <c r="C60" s="27"/>
       <c r="E60" s="6" t="s">
         <v>12</v>
       </c>
@@ -1751,10 +1809,10 @@
       <c r="A61" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="25"/>
+      <c r="C61" s="27"/>
     </row>
     <row r="62" spans="1:6" ht="15" thickBot="1">
       <c r="A62" s="6" t="s">
@@ -1796,8 +1854,12 @@
       <c r="F65" s="9"/>
     </row>
     <row r="66" spans="1:6" ht="15" thickBot="1">
-      <c r="A66" s="1"/>
-      <c r="B66" s="2"/>
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="C66" s="3"/>
       <c r="E66" s="6" t="s">
         <v>10</v>
@@ -1805,8 +1867,12 @@
       <c r="F66" s="9"/>
     </row>
     <row r="67" spans="1:6" ht="15" thickBot="1">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7"/>
+      <c r="A67" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="C67" s="8"/>
       <c r="E67" s="6" t="s">
         <v>11</v>
@@ -1814,33 +1880,55 @@
       <c r="F67" s="9"/>
     </row>
     <row r="68" spans="1:6" ht="15" thickBot="1">
-      <c r="A68" s="6"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
+      <c r="A68" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="27"/>
       <c r="E68" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="9"/>
     </row>
     <row r="69" spans="1:6" ht="15" thickBot="1">
-      <c r="A69" s="6"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="25"/>
+      <c r="A69" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="27"/>
     </row>
     <row r="70" spans="1:6" ht="15" thickBot="1">
-      <c r="A70" s="6"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
+      <c r="A70" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="27"/>
     </row>
     <row r="71" spans="1:6" ht="15" thickBot="1">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
+      <c r="A71" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="72" spans="1:6" ht="15" thickBot="1">
       <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
+      <c r="B72" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="E72" s="4" t="s">
         <v>8</v>
       </c>
@@ -1885,10 +1973,10 @@
       <c r="A76" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="25"/>
+      <c r="C76" s="27"/>
       <c r="E76" s="6" t="s">
         <v>11</v>
       </c>
@@ -1898,10 +1986,10 @@
       <c r="A77" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C77" s="25"/>
+      <c r="C77" s="27"/>
       <c r="E77" s="6" t="s">
         <v>12</v>
       </c>
@@ -1911,10 +1999,10 @@
       <c r="A78" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="25"/>
+      <c r="C78" s="27"/>
     </row>
     <row r="79" spans="1:6" ht="15" thickBot="1">
       <c r="A79" s="6" t="s">
@@ -2024,8 +2112,8 @@
     </row>
     <row r="92" spans="1:6" ht="15" thickBot="1">
       <c r="A92" s="1"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="27"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="25"/>
       <c r="E92" s="6" t="s">
         <v>11</v>
       </c>
@@ -2033,8 +2121,8 @@
     </row>
     <row r="93" spans="1:6" ht="15" thickBot="1">
       <c r="A93" s="6"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="25"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="27"/>
       <c r="E93" s="6" t="s">
         <v>12</v>
       </c>
@@ -2042,18 +2130,18 @@
     </row>
     <row r="94" spans="1:6" ht="15" thickBot="1">
       <c r="A94" s="6"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="25"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="27"/>
     </row>
     <row r="95" spans="1:6" ht="15" thickBot="1">
       <c r="A95" s="6"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="25"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="27"/>
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1" thickBot="1">
       <c r="A96" s="6"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="25"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="27"/>
       <c r="E96" s="4" t="s">
         <v>8</v>
       </c>
@@ -2094,8 +2182,8 @@
     </row>
     <row r="101" spans="1:6" ht="15" thickBot="1">
       <c r="A101" s="1"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="27"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="25"/>
       <c r="E101" s="6" t="s">
         <v>12</v>
       </c>
@@ -2103,23 +2191,23 @@
     </row>
     <row r="102" spans="1:6" ht="15" thickBot="1">
       <c r="A102" s="6"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="25"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="27"/>
     </row>
     <row r="103" spans="1:6" ht="15" thickBot="1">
       <c r="A103" s="6"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="25"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="27"/>
     </row>
     <row r="104" spans="1:6" ht="15" thickBot="1">
       <c r="A104" s="6"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="25"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="27"/>
     </row>
     <row r="105" spans="1:6" ht="15" thickBot="1">
       <c r="A105" s="6"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="25"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="27"/>
     </row>
     <row r="106" spans="1:6" ht="15" thickBot="1">
       <c r="A106" s="6"/>
@@ -2138,31 +2226,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="B78:C78"/>
@@ -2178,6 +2241,31 @@
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
